--- a/CASUAL/LA SP-VMO/ZAFRA, CHEYSSER ALAGAO.xlsx
+++ b/CASUAL/LA SP-VMO/ZAFRA, CHEYSSER ALAGAO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7719CDE-058F-4BA2-B40F-A574B2680FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -270,11 +269,17 @@
   <si>
     <t>12/14,27,28,29/2023</t>
   </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -927,7 +932,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1003,9 +1008,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$9:$G$116</c:f>
+              <c:f>Sheet1!$A$9:$G$117</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="108"/>
+                <c:ptCount val="109"/>
                 <c:lvl>
                   <c:pt idx="2">
                     <c:v>1.125</c:v>
@@ -1184,10 +1189,13 @@
                   <c:pt idx="73">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="74">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>37.895</c:v>
+                    <c:v>39.145</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1439,6 +1447,9 @@
                   <c:pt idx="73">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="74">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1522,6 +1533,9 @@
                   <c:pt idx="74">
                     <c:v>FL(4-0-0)</c:v>
                   </c:pt>
+                  <c:pt idx="76">
+                    <c:v>SL(1-0-0)</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1720,102 +1734,105 @@
                     <c:v>12/01/23</c:v>
                   </c:pt>
                   <c:pt idx="75">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
                     <c:v>01/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="76">
+                  <c:pt idx="77">
                     <c:v>02/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="77">
+                  <c:pt idx="78">
                     <c:v>03/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="78">
+                  <c:pt idx="79">
                     <c:v>04/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="79">
+                  <c:pt idx="80">
                     <c:v>05/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="80">
+                  <c:pt idx="81">
                     <c:v>06/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="81">
+                  <c:pt idx="82">
                     <c:v>07/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="82">
+                  <c:pt idx="83">
                     <c:v>08/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="83">
+                  <c:pt idx="84">
                     <c:v>09/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="84">
+                  <c:pt idx="85">
                     <c:v>10/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="85">
+                  <c:pt idx="86">
                     <c:v>11/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="86">
+                  <c:pt idx="87">
                     <c:v>12/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="87">
+                  <c:pt idx="88">
                     <c:v>01/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="88">
+                  <c:pt idx="89">
                     <c:v>02/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="89">
+                  <c:pt idx="90">
                     <c:v>03/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="90">
+                  <c:pt idx="91">
                     <c:v>04/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="91">
+                  <c:pt idx="92">
                     <c:v>05/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="92">
+                  <c:pt idx="93">
                     <c:v>06/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="93">
+                  <c:pt idx="94">
                     <c:v>07/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="94">
+                  <c:pt idx="95">
                     <c:v>08/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="95">
+                  <c:pt idx="96">
                     <c:v>09/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="96">
+                  <c:pt idx="97">
                     <c:v>10/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="97">
+                  <c:pt idx="98">
                     <c:v>11/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="98">
+                  <c:pt idx="99">
                     <c:v>12/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="99">
+                  <c:pt idx="100">
                     <c:v>01/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="100">
+                  <c:pt idx="101">
                     <c:v>02/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="101">
+                  <c:pt idx="102">
                     <c:v>03/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="102">
+                  <c:pt idx="103">
                     <c:v>04/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="103">
+                  <c:pt idx="104">
                     <c:v>05/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="104">
+                  <c:pt idx="105">
                     <c:v>06/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="105">
+                  <c:pt idx="106">
                     <c:v>07/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="106">
+                  <c:pt idx="107">
                     <c:v>08/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="107">
+                  <c:pt idx="108">
                     <c:v>09/01/26</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1824,17 +1841,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$9:$H$116</c:f>
+              <c:f>Sheet1!$H$9:$H$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="67">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-77FB-47AB-B4D5-4AB5F04D4C93}"/>
             </c:ext>
@@ -1866,9 +1886,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$9:$G$116</c:f>
+              <c:f>Sheet1!$A$9:$G$117</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="108"/>
+                <c:ptCount val="109"/>
                 <c:lvl>
                   <c:pt idx="2">
                     <c:v>1.125</c:v>
@@ -2047,10 +2067,13 @@
                   <c:pt idx="73">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="74">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>37.895</c:v>
+                    <c:v>39.145</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2302,6 +2325,9 @@
                   <c:pt idx="73">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="74">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2385,6 +2411,9 @@
                   <c:pt idx="74">
                     <c:v>FL(4-0-0)</c:v>
                   </c:pt>
+                  <c:pt idx="76">
+                    <c:v>SL(1-0-0)</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2583,102 +2612,105 @@
                     <c:v>12/01/23</c:v>
                   </c:pt>
                   <c:pt idx="75">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
                     <c:v>01/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="76">
+                  <c:pt idx="77">
                     <c:v>02/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="77">
+                  <c:pt idx="78">
                     <c:v>03/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="78">
+                  <c:pt idx="79">
                     <c:v>04/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="79">
+                  <c:pt idx="80">
                     <c:v>05/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="80">
+                  <c:pt idx="81">
                     <c:v>06/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="81">
+                  <c:pt idx="82">
                     <c:v>07/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="82">
+                  <c:pt idx="83">
                     <c:v>08/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="83">
+                  <c:pt idx="84">
                     <c:v>09/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="84">
+                  <c:pt idx="85">
                     <c:v>10/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="85">
+                  <c:pt idx="86">
                     <c:v>11/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="86">
+                  <c:pt idx="87">
                     <c:v>12/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="87">
+                  <c:pt idx="88">
                     <c:v>01/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="88">
+                  <c:pt idx="89">
                     <c:v>02/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="89">
+                  <c:pt idx="90">
                     <c:v>03/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="90">
+                  <c:pt idx="91">
                     <c:v>04/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="91">
+                  <c:pt idx="92">
                     <c:v>05/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="92">
+                  <c:pt idx="93">
                     <c:v>06/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="93">
+                  <c:pt idx="94">
                     <c:v>07/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="94">
+                  <c:pt idx="95">
                     <c:v>08/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="95">
+                  <c:pt idx="96">
                     <c:v>09/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="96">
+                  <c:pt idx="97">
                     <c:v>10/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="97">
+                  <c:pt idx="98">
                     <c:v>11/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="98">
+                  <c:pt idx="99">
                     <c:v>12/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="99">
+                  <c:pt idx="100">
                     <c:v>01/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="100">
+                  <c:pt idx="101">
                     <c:v>02/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="101">
+                  <c:pt idx="102">
                     <c:v>03/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="102">
+                  <c:pt idx="103">
                     <c:v>04/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="103">
+                  <c:pt idx="104">
                     <c:v>05/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="104">
+                  <c:pt idx="105">
                     <c:v>06/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="105">
+                  <c:pt idx="106">
                     <c:v>07/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="106">
+                  <c:pt idx="107">
                     <c:v>08/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="107">
+                  <c:pt idx="108">
                     <c:v>09/01/26</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2687,12 +2719,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$9:$I$116</c:f>
+              <c:f>Sheet1!$I$9:$I$117</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>71.625</c:v>
+                  <c:v>71.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2700,7 +2732,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-77FB-47AB-B4D5-4AB5F04D4C93}"/>
             </c:ext>
@@ -2732,9 +2764,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$9:$G$116</c:f>
+              <c:f>Sheet1!$A$9:$G$117</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="108"/>
+                <c:ptCount val="109"/>
                 <c:lvl>
                   <c:pt idx="2">
                     <c:v>1.125</c:v>
@@ -2913,10 +2945,13 @@
                   <c:pt idx="73">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="74">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>37.895</c:v>
+                    <c:v>39.145</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3168,6 +3203,9 @@
                   <c:pt idx="73">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="74">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -3251,6 +3289,9 @@
                   <c:pt idx="74">
                     <c:v>FL(4-0-0)</c:v>
                   </c:pt>
+                  <c:pt idx="76">
+                    <c:v>SL(1-0-0)</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3449,102 +3490,105 @@
                     <c:v>12/01/23</c:v>
                   </c:pt>
                   <c:pt idx="75">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
                     <c:v>01/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="76">
+                  <c:pt idx="77">
                     <c:v>02/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="77">
+                  <c:pt idx="78">
                     <c:v>03/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="78">
+                  <c:pt idx="79">
                     <c:v>04/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="79">
+                  <c:pt idx="80">
                     <c:v>05/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="80">
+                  <c:pt idx="81">
                     <c:v>06/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="81">
+                  <c:pt idx="82">
                     <c:v>07/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="82">
+                  <c:pt idx="83">
                     <c:v>08/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="83">
+                  <c:pt idx="84">
                     <c:v>09/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="84">
+                  <c:pt idx="85">
                     <c:v>10/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="85">
+                  <c:pt idx="86">
                     <c:v>11/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="86">
+                  <c:pt idx="87">
                     <c:v>12/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="87">
+                  <c:pt idx="88">
                     <c:v>01/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="88">
+                  <c:pt idx="89">
                     <c:v>02/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="89">
+                  <c:pt idx="90">
                     <c:v>03/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="90">
+                  <c:pt idx="91">
                     <c:v>04/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="91">
+                  <c:pt idx="92">
                     <c:v>05/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="92">
+                  <c:pt idx="93">
                     <c:v>06/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="93">
+                  <c:pt idx="94">
                     <c:v>07/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="94">
+                  <c:pt idx="95">
                     <c:v>08/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="95">
+                  <c:pt idx="96">
                     <c:v>09/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="96">
+                  <c:pt idx="97">
                     <c:v>10/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="97">
+                  <c:pt idx="98">
                     <c:v>11/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="98">
+                  <c:pt idx="99">
                     <c:v>12/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="99">
+                  <c:pt idx="100">
                     <c:v>01/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="100">
+                  <c:pt idx="101">
                     <c:v>02/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="101">
+                  <c:pt idx="102">
                     <c:v>03/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="102">
+                  <c:pt idx="103">
                     <c:v>04/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="103">
+                  <c:pt idx="104">
                     <c:v>05/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="104">
+                  <c:pt idx="105">
                     <c:v>06/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="105">
+                  <c:pt idx="106">
                     <c:v>07/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="106">
+                  <c:pt idx="107">
                     <c:v>08/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="107">
+                  <c:pt idx="108">
                     <c:v>09/01/26</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3553,14 +3597,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$9:$J$116</c:f>
+              <c:f>Sheet1!$J$9:$J$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="109"/>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-77FB-47AB-B4D5-4AB5F04D4C93}"/>
             </c:ext>
@@ -3592,9 +3636,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$9:$G$116</c:f>
+              <c:f>Sheet1!$A$9:$G$117</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="108"/>
+                <c:ptCount val="109"/>
                 <c:lvl>
                   <c:pt idx="2">
                     <c:v>1.125</c:v>
@@ -3773,10 +3817,13 @@
                   <c:pt idx="73">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="74">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>37.895</c:v>
+                    <c:v>39.145</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4028,6 +4075,9 @@
                   <c:pt idx="73">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="74">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4111,6 +4161,9 @@
                   <c:pt idx="74">
                     <c:v>FL(4-0-0)</c:v>
                   </c:pt>
+                  <c:pt idx="76">
+                    <c:v>SL(1-0-0)</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4309,102 +4362,105 @@
                     <c:v>12/01/23</c:v>
                   </c:pt>
                   <c:pt idx="75">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
                     <c:v>01/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="76">
+                  <c:pt idx="77">
                     <c:v>02/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="77">
+                  <c:pt idx="78">
                     <c:v>03/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="78">
+                  <c:pt idx="79">
                     <c:v>04/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="79">
+                  <c:pt idx="80">
                     <c:v>05/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="80">
+                  <c:pt idx="81">
                     <c:v>06/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="81">
+                  <c:pt idx="82">
                     <c:v>07/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="82">
+                  <c:pt idx="83">
                     <c:v>08/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="83">
+                  <c:pt idx="84">
                     <c:v>09/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="84">
+                  <c:pt idx="85">
                     <c:v>10/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="85">
+                  <c:pt idx="86">
                     <c:v>11/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="86">
+                  <c:pt idx="87">
                     <c:v>12/01/24</c:v>
                   </c:pt>
-                  <c:pt idx="87">
+                  <c:pt idx="88">
                     <c:v>01/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="88">
+                  <c:pt idx="89">
                     <c:v>02/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="89">
+                  <c:pt idx="90">
                     <c:v>03/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="90">
+                  <c:pt idx="91">
                     <c:v>04/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="91">
+                  <c:pt idx="92">
                     <c:v>05/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="92">
+                  <c:pt idx="93">
                     <c:v>06/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="93">
+                  <c:pt idx="94">
                     <c:v>07/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="94">
+                  <c:pt idx="95">
                     <c:v>08/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="95">
+                  <c:pt idx="96">
                     <c:v>09/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="96">
+                  <c:pt idx="97">
                     <c:v>10/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="97">
+                  <c:pt idx="98">
                     <c:v>11/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="98">
+                  <c:pt idx="99">
                     <c:v>12/01/25</c:v>
                   </c:pt>
-                  <c:pt idx="99">
+                  <c:pt idx="100">
                     <c:v>01/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="100">
+                  <c:pt idx="101">
                     <c:v>02/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="101">
+                  <c:pt idx="102">
                     <c:v>03/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="102">
+                  <c:pt idx="103">
                     <c:v>04/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="103">
+                  <c:pt idx="104">
                     <c:v>05/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="104">
+                  <c:pt idx="105">
                     <c:v>06/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="105">
+                  <c:pt idx="106">
                     <c:v>07/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="106">
+                  <c:pt idx="107">
                     <c:v>08/01/26</c:v>
                   </c:pt>
-                  <c:pt idx="107">
+                  <c:pt idx="108">
                     <c:v>09/01/26</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4413,10 +4469,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$9:$K$116</c:f>
+              <c:f>Sheet1!$K$9:$K$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4459,10 +4515,13 @@
                 <c:pt idx="74">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="76" formatCode="m/d/yyyy">
+                  <c:v>45303</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-77FB-47AB-B4D5-4AB5F04D4C93}"/>
             </c:ext>
@@ -4478,11 +4537,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="112178488"/>
-        <c:axId val="112178880"/>
+        <c:axId val="402038960"/>
+        <c:axId val="402038176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112178488"/>
+        <c:axId val="402038960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4525,7 +4584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112178880"/>
+        <c:crossAx val="402038176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4533,7 +4592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112178880"/>
+        <c:axId val="402038176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4584,7 +4643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112178488"/>
+        <c:crossAx val="402038960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5203,7 +5262,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
@@ -5223,7 +5282,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5247,7 +5306,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -5264,25 +5323,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K116" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K117" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5589,34 +5648,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K116"/>
+  <dimension ref="A2:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3876" topLeftCell="A76" activePane="bottomLeft"/>
+      <pane ySplit="3870" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -5639,7 +5698,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -5659,7 +5718,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -5679,7 +5738,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -5687,7 +5746,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -5700,7 +5759,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="49" t="s">
@@ -5717,7 +5776,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5752,7 +5811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -5761,7 +5820,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37.895000000000003</v>
+        <v>39.145000000000003</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -5771,12 +5830,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>71.625</v>
+        <v>71.875</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>37</v>
       </c>
@@ -5798,7 +5857,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43469</v>
       </c>
@@ -5818,7 +5877,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43497</v>
       </c>
@@ -5838,7 +5897,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43525</v>
       </c>
@@ -5858,7 +5917,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43556</v>
       </c>
@@ -5878,7 +5937,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43586</v>
       </c>
@@ -5898,7 +5957,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43617</v>
       </c>
@@ -5918,7 +5977,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43647</v>
       </c>
@@ -5938,7 +5997,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43678</v>
       </c>
@@ -5958,7 +6017,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43709</v>
       </c>
@@ -5978,7 +6037,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43739</v>
       </c>
@@ -5998,7 +6057,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43770</v>
       </c>
@@ -6018,7 +6077,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43800</v>
       </c>
@@ -6042,7 +6101,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>36</v>
       </c>
@@ -6060,7 +6119,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43831</v>
       </c>
@@ -6080,7 +6139,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <f>EDATE(A24,1)</f>
         <v>43862</v>
@@ -6101,7 +6160,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <f t="shared" ref="A26:A35" si="0">EDATE(A25,1)</f>
         <v>43891</v>
@@ -6122,7 +6181,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -6143,7 +6202,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <f t="shared" si="0"/>
         <v>43952</v>
@@ -6164,7 +6223,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <f t="shared" si="0"/>
         <v>43983</v>
@@ -6185,7 +6244,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
         <v>44013</v>
@@ -6206,7 +6265,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <f t="shared" si="0"/>
         <v>44044</v>
@@ -6227,7 +6286,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <f t="shared" si="0"/>
         <v>44075</v>
@@ -6248,7 +6307,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <f t="shared" si="0"/>
         <v>44105</v>
@@ -6269,7 +6328,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <f t="shared" si="0"/>
         <v>44136</v>
@@ -6290,7 +6349,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <f t="shared" si="0"/>
         <v>44166</v>
@@ -6315,7 +6374,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>38</v>
       </c>
@@ -6333,7 +6392,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>44197</v>
       </c>
@@ -6353,7 +6412,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <f>EDATE(A37,1)</f>
         <v>44228</v>
@@ -6374,7 +6433,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <f t="shared" ref="A39:A47" si="1">EDATE(A38,1)</f>
         <v>44256</v>
@@ -6395,7 +6454,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <f t="shared" si="1"/>
         <v>44287</v>
@@ -6416,7 +6475,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <f t="shared" si="1"/>
         <v>44317</v>
@@ -6437,7 +6496,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <f t="shared" si="1"/>
         <v>44348</v>
@@ -6458,7 +6517,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <f t="shared" si="1"/>
         <v>44378</v>
@@ -6479,7 +6538,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <f t="shared" si="1"/>
         <v>44409</v>
@@ -6500,7 +6559,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <f>EDATE(A44,1)</f>
         <v>44440</v>
@@ -6521,7 +6580,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <f t="shared" si="1"/>
         <v>44470</v>
@@ -6542,7 +6601,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <f t="shared" si="1"/>
         <v>44501</v>
@@ -6563,7 +6622,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <f>EDATE(A47,1)</f>
         <v>44531</v>
@@ -6588,7 +6647,7 @@
       <c r="J48" s="13"/>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
         <v>39</v>
       </c>
@@ -6606,7 +6665,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>44562</v>
       </c>
@@ -6626,7 +6685,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <f>EDATE(A50,1)</f>
         <v>44593</v>
@@ -6647,7 +6706,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <f t="shared" ref="A52:A63" si="2">EDATE(A51,1)</f>
         <v>44621</v>
@@ -6674,7 +6733,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="21" t="s">
         <v>75</v>
@@ -6694,7 +6753,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <f>EDATE(A52,1)</f>
         <v>44652</v>
@@ -6715,7 +6774,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <f t="shared" si="2"/>
         <v>44682</v>
@@ -6740,7 +6799,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <f t="shared" si="2"/>
         <v>44713</v>
@@ -6767,7 +6826,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="21" t="s">
         <v>72</v>
@@ -6787,7 +6846,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <f>EDATE(A56,1)</f>
         <v>44743</v>
@@ -6814,7 +6873,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="21" t="s">
         <v>69</v>
@@ -6834,7 +6893,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="48"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <f>EDATE(A58,1)</f>
         <v>44774</v>
@@ -6861,7 +6920,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="21" t="s">
         <v>68</v>
@@ -6881,7 +6940,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="48"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <f>EDATE(A60,1)</f>
         <v>44805</v>
@@ -6906,7 +6965,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <f t="shared" si="2"/>
         <v>44835</v>
@@ -6933,7 +6992,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="21" t="s">
         <v>62</v>
@@ -6955,7 +7014,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="21" t="s">
         <v>66</v>
@@ -6975,7 +7034,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="48"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>44866</v>
       </c>
@@ -6999,7 +7058,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>44896</v>
       </c>
@@ -7025,7 +7084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="21" t="s">
         <v>62</v>
@@ -7047,7 +7106,7 @@
         <v>44903</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="21" t="s">
         <v>63</v>
@@ -7067,7 +7126,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="48"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="37" t="s">
         <v>51</v>
       </c>
@@ -7085,7 +7144,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>44927</v>
       </c>
@@ -7105,7 +7164,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>44958</v>
       </c>
@@ -7131,7 +7190,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>44986</v>
       </c>
@@ -7151,7 +7210,7 @@
       <c r="J73" s="13"/>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>45017</v>
       </c>
@@ -7171,7 +7230,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>45047</v>
       </c>
@@ -7195,7 +7254,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
       <c r="B76" s="21" t="s">
         <v>57</v>
@@ -7217,7 +7276,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>45078</v>
       </c>
@@ -7237,7 +7296,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>45108</v>
       </c>
@@ -7257,7 +7316,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>45139</v>
       </c>
@@ -7277,7 +7336,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>45170</v>
       </c>
@@ -7297,7 +7356,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45200</v>
       </c>
@@ -7323,7 +7382,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45231</v>
       </c>
@@ -7347,22 +7406,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>45261</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39">
         <v>4</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -7371,9 +7432,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="24">
-        <v>45292</v>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="37" t="s">
+        <v>78</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
@@ -7389,11 +7450,13 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
-        <v>45323</v>
-      </c>
-      <c r="B85" s="21"/>
+        <v>45292</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>79</v>
+      </c>
       <c r="C85" s="14"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
@@ -7402,14 +7465,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="39"/>
+      <c r="H85" s="39">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="48">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
@@ -7425,9 +7492,9 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
@@ -7443,9 +7510,9 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
@@ -7461,9 +7528,9 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
@@ -7479,9 +7546,9 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
@@ -7497,9 +7564,9 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -7515,9 +7582,9 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -7533,9 +7600,9 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -7551,9 +7618,9 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -7569,9 +7636,9 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -7587,9 +7654,9 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -7605,9 +7672,9 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -7623,9 +7690,9 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -7641,9 +7708,9 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -7659,9 +7726,9 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -7677,9 +7744,9 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -7695,9 +7762,9 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -7713,9 +7780,9 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -7731,9 +7798,9 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -7749,9 +7816,9 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -7767,9 +7834,9 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -7785,9 +7852,9 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -7803,9 +7870,9 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -7821,9 +7888,9 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -7839,9 +7906,9 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -7857,9 +7924,9 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -7875,9 +7942,9 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -7893,9 +7960,9 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -7911,9 +7978,9 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -7929,9 +7996,9 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -7947,9 +8014,9 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -7964,6 +8031,24 @@
       <c r="I116" s="9"/>
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="24">
+        <v>46266</v>
+      </c>
+      <c r="B117" s="21"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="39"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7980,10 +8065,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8006,28 +8091,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="42" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -8040,7 +8125,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -8069,7 +8154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="D3" s="12"/>
@@ -8091,17 +8176,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
@@ -8125,10 +8210,10 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>109.52000000000001</v>
+        <v>111.02000000000001</v>
       </c>
       <c r="C7" s="42">
         <v>1</v>
@@ -8156,7 +8241,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="42">
         <v>2</v>
       </c>
@@ -8182,7 +8267,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="42">
         <v>3</v>
       </c>
@@ -8208,7 +8293,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="42">
         <v>4</v>
       </c>
@@ -8234,7 +8319,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="42">
         <v>5</v>
       </c>
@@ -8260,7 +8345,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="42">
         <v>6</v>
       </c>
@@ -8286,7 +8371,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="42">
         <v>7</v>
       </c>
@@ -8312,7 +8397,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="42">
         <v>8</v>
       </c>
@@ -8338,7 +8423,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="42">
         <v>9</v>
       </c>
@@ -8358,7 +8443,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="42">
         <v>10</v>
       </c>
@@ -8378,7 +8463,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="42">
         <v>11</v>
       </c>
@@ -8398,7 +8483,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="42">
         <v>12</v>
       </c>
@@ -8419,7 +8504,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="42">
         <v>13</v>
       </c>
@@ -8440,7 +8525,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="42">
         <v>14</v>
       </c>
@@ -8461,7 +8546,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="42">
         <v>15</v>
       </c>
@@ -8482,7 +8567,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="42">
         <v>16</v>
       </c>
@@ -8503,7 +8588,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="42">
         <v>17</v>
       </c>
@@ -8524,7 +8609,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="42">
         <v>18</v>
       </c>
@@ -8545,7 +8630,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="42">
         <v>19</v>
       </c>
@@ -8566,7 +8651,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="42">
         <v>20</v>
       </c>
@@ -8587,7 +8672,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="42">
         <v>21</v>
       </c>
@@ -8608,7 +8693,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="42">
         <v>22</v>
       </c>
@@ -8629,7 +8714,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="42">
         <v>23</v>
       </c>
@@ -8650,7 +8735,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="42">
         <v>24</v>
       </c>
@@ -8671,7 +8756,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="42">
         <v>25</v>
       </c>
@@ -8692,7 +8777,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="42">
         <v>26</v>
       </c>
@@ -8713,7 +8798,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="42">
         <v>27</v>
       </c>
@@ -8734,7 +8819,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="42">
         <v>28</v>
       </c>
@@ -8755,7 +8840,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="42">
         <v>29</v>
       </c>
@@ -8776,7 +8861,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="42">
         <v>30</v>
       </c>
@@ -8797,7 +8882,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="42">
         <v>31</v>
       </c>
@@ -8818,7 +8903,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="42">
         <v>32</v>
       </c>
@@ -8827,7 +8912,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="42">
         <v>33</v>
       </c>
@@ -8836,7 +8921,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="42">
         <v>34</v>
       </c>
@@ -8845,7 +8930,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="42">
         <v>35</v>
       </c>
@@ -8854,7 +8939,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="42">
         <v>36</v>
       </c>
@@ -8863,7 +8948,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="42">
         <v>37</v>
       </c>
@@ -8872,7 +8957,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="42">
         <v>38</v>
       </c>
@@ -8881,7 +8966,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="42">
         <v>39</v>
       </c>
@@ -8890,7 +8975,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="42">
         <v>40</v>
       </c>
@@ -8899,7 +8984,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="42">
         <v>41</v>
       </c>
@@ -8908,7 +8993,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="42">
         <v>42</v>
       </c>
@@ -8917,7 +9002,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="42">
         <v>43</v>
       </c>
@@ -8926,7 +9011,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="42">
         <v>44</v>
       </c>
@@ -8935,7 +9020,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="42">
         <v>45</v>
       </c>
@@ -8944,7 +9029,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="42">
         <v>46</v>
       </c>
@@ -8953,7 +9038,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="42">
         <v>47</v>
       </c>
@@ -8962,7 +9047,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="42">
         <v>48</v>
       </c>
@@ -8971,7 +9056,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="42">
         <v>49</v>
       </c>
@@ -8980,7 +9065,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="42">
         <v>50</v>
       </c>
@@ -8989,7 +9074,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="42">
         <v>51</v>
       </c>
@@ -8998,7 +9083,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="42">
         <v>52</v>
       </c>
@@ -9007,7 +9092,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="42">
         <v>53</v>
       </c>
@@ -9016,7 +9101,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="42">
         <v>54</v>
       </c>
@@ -9025,7 +9110,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="42">
         <v>55</v>
       </c>
@@ -9034,7 +9119,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="42">
         <v>56</v>
       </c>
@@ -9043,7 +9128,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="42">
         <v>57</v>
       </c>
@@ -9052,7 +9137,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="42">
         <v>58</v>
       </c>
@@ -9061,7 +9146,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="42">
         <v>59</v>
       </c>
@@ -9070,7 +9155,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="42">
         <v>60</v>
       </c>
@@ -9079,7 +9164,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/CASUAL/LA SP-VMO/ZAFRA, CHEYSSER ALAGAO.xlsx
+++ b/CASUAL/LA SP-VMO/ZAFRA, CHEYSSER ALAGAO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>01/31/2023-02/01/2024</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +1195,13 @@
                   <c:pt idx="74">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="76">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>39.145</c:v>
+                    <c:v>40.395</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1450,6 +1456,9 @@
                   <c:pt idx="74">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="76">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1535,6 +1544,9 @@
                   </c:pt>
                   <c:pt idx="76">
                     <c:v>SL(1-0-0)</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>SL(2-0-0)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1850,6 +1862,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2070,10 +2085,13 @@
                   <c:pt idx="74">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="76">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>39.145</c:v>
+                    <c:v>40.395</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2328,6 +2346,9 @@
                   <c:pt idx="74">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="76">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2413,6 +2434,9 @@
                   </c:pt>
                   <c:pt idx="76">
                     <c:v>SL(1-0-0)</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>SL(2-0-0)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2724,7 +2748,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>71.875</c:v>
+                  <c:v>71.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2948,10 +2972,13 @@
                   <c:pt idx="74">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="76">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>39.145</c:v>
+                    <c:v>40.395</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3206,6 +3233,9 @@
                   <c:pt idx="74">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="76">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -3291,6 +3321,9 @@
                   </c:pt>
                   <c:pt idx="76">
                     <c:v>SL(1-0-0)</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>SL(2-0-0)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3820,10 +3853,13 @@
                   <c:pt idx="74">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="76">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>39.145</c:v>
+                    <c:v>40.395</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4078,6 +4114,9 @@
                   <c:pt idx="74">
                     <c:v>1.250</c:v>
                   </c:pt>
+                  <c:pt idx="76">
+                    <c:v>1.250</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4163,6 +4202,9 @@
                   </c:pt>
                   <c:pt idx="76">
                     <c:v>SL(1-0-0)</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>SL(2-0-0)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4518,6 +4560,9 @@
                 <c:pt idx="76" formatCode="m/d/yyyy">
                   <c:v>45303</c:v>
                 </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4537,11 +4582,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="402038960"/>
-        <c:axId val="402038176"/>
+        <c:axId val="406291256"/>
+        <c:axId val="406291648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="402038960"/>
+        <c:axId val="406291256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4584,7 +4629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402038176"/>
+        <c:crossAx val="406291648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4592,7 +4637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402038176"/>
+        <c:axId val="406291648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4643,7 +4688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402038960"/>
+        <c:crossAx val="406291256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5282,7 +5327,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5657,7 +5702,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3870" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5820,7 +5865,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39.145000000000003</v>
+        <v>40.395000000000003</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -5830,7 +5875,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>71.875</v>
+        <v>71.125</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -7457,13 +7502,15 @@
       <c r="B85" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="14"/>
+      <c r="C85" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39">
         <v>1</v>
@@ -7478,7 +7525,9 @@
       <c r="A86" s="24">
         <v>45323</v>
       </c>
-      <c r="B86" s="21"/>
+      <c r="B86" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="C86" s="14"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
@@ -7487,10 +7536,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="39">
+        <v>2</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
+      <c r="K86" s="21" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
@@ -8213,7 +8266,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>111.02000000000001</v>
+        <v>111.52000000000001</v>
       </c>
       <c r="C7" s="42">
         <v>1</v>
